--- a/mbs-perturbation/chain/multinomialNB/nearmiss/chain-multinomialNB-nearmiss-results.xlsx
+++ b/mbs-perturbation/chain/multinomialNB/nearmiss/chain-multinomialNB-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8444444444444446</v>
+        <v>0.6827262044653348</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.4380952380952381</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.4380952380952381</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8285714285714285</v>
+        <v>0.8960573476702509</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6037267080745342</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>0.6285714285714286</v>
       </c>
     </row>
     <row r="7">
@@ -562,13 +562,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6</v>
+        <v>0.7086452762923351</v>
       </c>
       <c r="C7" t="n">
         <v>0.7333333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6679365079365081</v>
+        <v>0.7143967888841292</v>
       </c>
       <c r="E7" t="n">
         <v>0.7333333333333333</v>
